--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,23 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,6 +34,21 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -47,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,14 +81,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,42 +113,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,45 +129,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -503,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -517,303 +463,196 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43393</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8544</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8582</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUM(C3,-C2)</f>
+        <v>38</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F3" s="7">
+        <f>PRODUCT(D3,E3)</f>
+        <v>170.62</v>
+      </c>
+      <c r="G3" s="9">
+        <v>170.62</v>
+      </c>
+      <c r="H3" s="9">
+        <v>170.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43710</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8611</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM(C4,-C3)</f>
+        <v>29</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="7">
+        <f>PRODUCT(D4,E4)</f>
+        <v>130.21</v>
+      </c>
+      <c r="G4" s="9">
+        <v>130.21</v>
+      </c>
+      <c r="H4" s="9">
+        <v>130.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43739</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8627</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM(C5,-C4)</f>
+        <v>16</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="7">
+        <f>PRODUCT(D5,E5)</f>
+        <v>71.84</v>
+      </c>
+      <c r="G5" s="9">
+        <v>71.84</v>
+      </c>
+      <c r="H5" s="9">
+        <v>71.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43860</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8655</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(C6,-C5)</f>
+        <v>28</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="7">
+        <f>PRODUCT(D6,E6)</f>
+        <v>125.72</v>
+      </c>
+      <c r="G6" s="9">
+        <v>125.72</v>
+      </c>
+      <c r="H6" s="9">
+        <v>125.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9">
+        <f>SUM(G2:G6)</f>
+        <v>498.3900000000001</v>
+      </c>
+      <c r="H7" s="9">
+        <f>SUM(H2:H6)</f>
+        <v>498.3900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43125</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>8322</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43393</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>8544</v>
-      </c>
-      <c r="D3" s="5">
-        <f>SUM(C3,-C2)</f>
-        <v>222</v>
-      </c>
-      <c r="E3" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="20">
-        <f>PRODUCT(D3,E3)</f>
-        <v>999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43678</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8582</v>
-      </c>
-      <c r="D4" s="5">
-        <f>SUM(C4,-C3)</f>
-        <v>38</v>
-      </c>
-      <c r="E4" s="20">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="20">
-        <f>PRODUCT(D4,E4)</f>
-        <v>170.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43710</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>8611</v>
-      </c>
-      <c r="D5" s="5">
-        <f>SUM(C5,-C4)</f>
-        <v>29</v>
-      </c>
-      <c r="E5" s="20">
-        <v>4.49</v>
-      </c>
-      <c r="F5" s="20">
-        <f>PRODUCT(D5,E5)</f>
-        <v>130.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43739</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>8627</v>
-      </c>
-      <c r="D6" s="5">
-        <f>SUM(C6,-C5)</f>
-        <v>16</v>
-      </c>
-      <c r="E6" s="20">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="20">
-        <f>PRODUCT(D6,E6)</f>
-        <v>71.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43860</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>8655</v>
-      </c>
-      <c r="D7" s="5">
-        <f>SUM(C7,-C6)</f>
-        <v>28</v>
-      </c>
-      <c r="E7" s="20">
-        <v>4.49</v>
-      </c>
-      <c r="F7" s="20">
-        <f>PRODUCT(D7,E7)</f>
-        <v>125.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,32 +625,88 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
+      <c r="A7" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8825</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(C7,-C6)</f>
+        <v>170</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="7">
+        <f>PRODUCT(D7,E7)</f>
+        <v>763.30000000000007</v>
+      </c>
+      <c r="G7" s="9">
+        <v>763.3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>763.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9040</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(C8,-C7)</f>
+        <v>215</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="7">
+        <f>PRODUCT(D8,E8)</f>
+        <v>965.35</v>
+      </c>
+      <c r="G8" s="9">
+        <v>965.35</v>
+      </c>
+      <c r="H8" s="9">
+        <v>965.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9">
-        <f>SUM(G2:G6)</f>
-        <v>498.3900000000001</v>
-      </c>
-      <c r="H7" s="9">
-        <f>SUM(H2:H6)</f>
-        <v>498.3900000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="G9" s="9">
+        <f>SUM(G2:G8)</f>
+        <v>2227.04</v>
+      </c>
+      <c r="H9" s="9">
+        <f>SUM(H2:H8)</f>
+        <v>2227.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>1</v>
       </c>
     </row>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,14 +523,14 @@
         <v>8582</v>
       </c>
       <c r="D3" s="4">
-        <f>SUM(C3,-C2)</f>
+        <f t="shared" ref="D3:D9" si="0">SUM(C3,-C2)</f>
         <v>38</v>
       </c>
       <c r="E3" s="7">
         <v>4.49</v>
       </c>
       <c r="F3" s="7">
-        <f>PRODUCT(D3,E3)</f>
+        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
         <v>170.62</v>
       </c>
       <c r="G3" s="9">
@@ -551,14 +551,14 @@
         <v>8611</v>
       </c>
       <c r="D4" s="4">
-        <f>SUM(C4,-C3)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E4" s="7">
         <v>4.49</v>
       </c>
       <c r="F4" s="7">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" si="1"/>
         <v>130.21</v>
       </c>
       <c r="G4" s="9">
@@ -579,14 +579,14 @@
         <v>8627</v>
       </c>
       <c r="D5" s="4">
-        <f>SUM(C5,-C4)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E5" s="7">
         <v>4.49</v>
       </c>
       <c r="F5" s="7">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="1"/>
         <v>71.84</v>
       </c>
       <c r="G5" s="9">
@@ -607,14 +607,14 @@
         <v>8655</v>
       </c>
       <c r="D6" s="4">
-        <f>SUM(C6,-C5)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="E6" s="7">
         <v>4.49</v>
       </c>
       <c r="F6" s="7">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="1"/>
         <v>125.72</v>
       </c>
       <c r="G6" s="9">
@@ -635,14 +635,14 @@
         <v>8825</v>
       </c>
       <c r="D7" s="4">
-        <f>SUM(C7,-C6)</f>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="E7" s="7">
         <v>4.49</v>
       </c>
       <c r="F7" s="7">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="1"/>
         <v>763.30000000000007</v>
       </c>
       <c r="G7" s="9">
@@ -663,14 +663,14 @@
         <v>9040</v>
       </c>
       <c r="D8" s="4">
-        <f>SUM(C8,-C7)</f>
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
       <c r="E8" s="7">
         <v>4.49</v>
       </c>
       <c r="F8" s="7">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="1"/>
         <v>965.35</v>
       </c>
       <c r="G8" s="9">
@@ -681,21 +681,31 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
+      <c r="A9" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9190</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9" si="2">PRODUCT(D9,E9)</f>
+        <v>673.5</v>
       </c>
       <c r="G9" s="9">
-        <f>SUM(G2:G8)</f>
-        <v>2227.04</v>
+        <v>673.5</v>
       </c>
       <c r="H9" s="9">
-        <f>SUM(H2:H8)</f>
-        <v>2227.04</v>
+        <v>673.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -703,10 +713,28 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(G2:G9)</f>
+        <v>2900.54</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H2:H9)</f>
+        <v>2900.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>1</v>
       </c>
     </row>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G10" sqref="G3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,14 +523,14 @@
         <v>8582</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D9" si="0">SUM(C3,-C2)</f>
+        <f t="shared" ref="D3:D8" si="0">SUM(C3,-C2)</f>
         <v>38</v>
       </c>
       <c r="E3" s="7">
         <v>4.49</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
+        <f t="shared" ref="F3:F9" si="1">PRODUCT(D3,E3)</f>
         <v>170.62</v>
       </c>
       <c r="G3" s="9">
@@ -691,15 +691,15 @@
         <v>9190</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>SUM(C9,-C7)</f>
+        <v>365</v>
       </c>
       <c r="E9" s="7">
         <v>4.49</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ref="F9" si="2">PRODUCT(D9,E9)</f>
-        <v>673.5</v>
+        <f t="shared" si="1"/>
+        <v>1638.8500000000001</v>
       </c>
       <c r="G9" s="9">
         <v>673.5</v>
@@ -709,21 +709,31 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
+      <c r="A10" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9415</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM(C10,-C9)</f>
+        <v>225</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" ref="F10" si="2">PRODUCT(D10,E10)</f>
+        <v>1010.25</v>
       </c>
       <c r="G10" s="9">
-        <f>SUM(G2:G9)</f>
-        <v>2900.54</v>
+        <v>1010.25</v>
       </c>
       <c r="H10" s="9">
-        <f>SUM(H2:H9)</f>
-        <v>2900.54</v>
+        <v>1010.25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -731,10 +741,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9">
+        <f>SUM(G2:G10)</f>
+        <v>3910.79</v>
+      </c>
+      <c r="H11" s="9">
+        <f>SUM(H2:H10)</f>
+        <v>3910.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>1</v>
       </c>
     </row>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
@@ -117,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -142,6 +139,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -449,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G3:G10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -472,28 +470,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -530,7 +528,7 @@
         <v>4.49</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F9" si="1">PRODUCT(D3,E3)</f>
+        <f t="shared" ref="F3:F10" si="1">PRODUCT(D3,E3)</f>
         <v>170.62</v>
       </c>
       <c r="G3" s="9">
@@ -719,15 +717,15 @@
         <v>9415</v>
       </c>
       <c r="D10" s="4">
-        <f>SUM(C10,-C9)</f>
-        <v>225</v>
+        <f>SUM(C10,-C8)</f>
+        <v>375</v>
       </c>
       <c r="E10" s="7">
         <v>4.49</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" ref="F10" si="2">PRODUCT(D10,E10)</f>
-        <v>1010.25</v>
+        <f t="shared" si="1"/>
+        <v>1683.75</v>
       </c>
       <c r="G10" s="9">
         <v>1010.25</v>
@@ -737,33 +735,89 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
+      <c r="A11" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9520</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM(C11,-C10)</f>
+        <v>105</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" ref="F11" si="2">PRODUCT(D11,E11)</f>
+        <v>494.55</v>
       </c>
       <c r="G11" s="9">
-        <f>SUM(G2:G10)</f>
-        <v>3910.79</v>
+        <v>494.55</v>
       </c>
       <c r="H11" s="9">
-        <f>SUM(H2:H10)</f>
-        <v>3910.79</v>
+        <v>498.39</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>1</v>
+      <c r="A12" s="3">
+        <v>44103</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9559</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM(C12,-C11)</f>
+        <v>39</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12" si="3">PRODUCT(D12,E12)</f>
+        <v>183.69</v>
+      </c>
+      <c r="G12" s="9">
+        <v>183.69</v>
+      </c>
+      <c r="H12" s="9">
+        <v>175.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="9">
+        <f>SUM(G2:G12)</f>
+        <v>4589.03</v>
+      </c>
+      <c r="H13" s="9">
+        <f>SUM(H2:H12)</f>
+        <v>4584.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="H14" s="10">
+        <f>SUM(G13,-H13)</f>
+        <v>4.7399999999997817</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,15 +689,15 @@
         <v>9190</v>
       </c>
       <c r="D9" s="4">
-        <f>SUM(C9,-C7)</f>
-        <v>365</v>
+        <f>SUM(C9,-C8)</f>
+        <v>150</v>
       </c>
       <c r="E9" s="7">
         <v>4.49</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>1638.8500000000001</v>
+        <v>673.5</v>
       </c>
       <c r="G9" s="9">
         <v>673.5</v>
@@ -717,18 +717,18 @@
         <v>9415</v>
       </c>
       <c r="D10" s="4">
-        <f>SUM(C10,-C8)</f>
-        <v>375</v>
+        <f>SUM(C10,-C9)</f>
+        <v>225</v>
       </c>
       <c r="E10" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>1683.75</v>
+        <v>1059.75</v>
       </c>
       <c r="G10" s="9">
-        <v>1010.25</v>
+        <v>1059.75</v>
       </c>
       <c r="H10" s="9">
         <v>1010.25</v>
@@ -742,21 +742,21 @@
         <v>0</v>
       </c>
       <c r="C11" s="4">
-        <v>9520</v>
+        <v>9526</v>
       </c>
       <c r="D11" s="4">
         <f>SUM(C11,-C10)</f>
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E11" s="7">
         <v>4.71</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ref="F11" si="2">PRODUCT(D11,E11)</f>
-        <v>494.55</v>
+        <v>522.80999999999995</v>
       </c>
       <c r="G11" s="9">
-        <v>494.55</v>
+        <v>522.80999999999995</v>
       </c>
       <c r="H11" s="9">
         <v>498.39</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="4">
-        <v>9559</v>
+        <v>9565</v>
       </c>
       <c r="D12" s="4">
         <f>SUM(C12,-C11)</f>
@@ -791,21 +791,31 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
+      <c r="A13" s="3">
+        <v>44137</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9593</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM(C13,-C12)</f>
+        <v>28</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" ref="F13" si="4">PRODUCT(D13,E13)</f>
+        <v>131.88</v>
       </c>
       <c r="G13" s="9">
-        <f>SUM(G2:G12)</f>
-        <v>4589.03</v>
+        <v>131.88</v>
       </c>
       <c r="H13" s="9">
-        <f>SUM(H2:H12)</f>
-        <v>4584.29</v>
+        <v>125.72</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -813,11 +823,29 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="10">
-        <f>SUM(G13,-H13)</f>
-        <v>4.7399999999997817</v>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(G2:G13)</f>
+        <v>4798.67</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM(H2:H13)</f>
+        <v>4710.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="H15" s="10">
+        <f>SUM(G14,-H14)</f>
+        <v>88.659999999999854</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>9190</v>
       </c>
       <c r="D9" s="4">
-        <f>SUM(C9,-C8)</f>
+        <f t="shared" ref="D9:D15" si="2">SUM(C9,-C8)</f>
         <v>150</v>
       </c>
       <c r="E9" s="7">
@@ -717,7 +717,7 @@
         <v>9415</v>
       </c>
       <c r="D10" s="4">
-        <f>SUM(C10,-C9)</f>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="E10" s="7">
@@ -745,14 +745,14 @@
         <v>9526</v>
       </c>
       <c r="D11" s="4">
-        <f>SUM(C11,-C10)</f>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="E11" s="7">
         <v>4.71</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" ref="F11" si="2">PRODUCT(D11,E11)</f>
+        <f t="shared" ref="F11" si="3">PRODUCT(D11,E11)</f>
         <v>522.80999999999995</v>
       </c>
       <c r="G11" s="9">
@@ -773,14 +773,14 @@
         <v>9565</v>
       </c>
       <c r="D12" s="4">
-        <f>SUM(C12,-C11)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" ref="F12" si="3">PRODUCT(D12,E12)</f>
+        <f t="shared" ref="F12" si="4">PRODUCT(D12,E12)</f>
         <v>183.69</v>
       </c>
       <c r="G12" s="9">
@@ -801,14 +801,14 @@
         <v>9593</v>
       </c>
       <c r="D13" s="4">
-        <f>SUM(C13,-C12)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E13" s="7">
         <v>4.71</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" ref="F13" si="4">PRODUCT(D13,E13)</f>
+        <f t="shared" ref="F13" si="5">PRODUCT(D13,E13)</f>
         <v>131.88</v>
       </c>
       <c r="G13" s="9">
@@ -819,33 +819,89 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5" t="s">
+      <c r="A14" s="3">
+        <v>44166</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9635</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" ref="F14" si="6">PRODUCT(D14,E14)</f>
+        <v>197.82</v>
+      </c>
+      <c r="G14" s="9">
+        <v>197.82</v>
+      </c>
+      <c r="H14" s="9">
+        <v>197.56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44194</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9657</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" ref="F15" si="7">PRODUCT(D15,E15)</f>
+        <v>103.62</v>
+      </c>
+      <c r="G15" s="9">
+        <v>103.62</v>
+      </c>
+      <c r="H15" s="9">
+        <v>193.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="9">
-        <f>SUM(G2:G13)</f>
-        <v>4798.67</v>
-      </c>
-      <c r="H14" s="9">
-        <f>SUM(H2:H13)</f>
-        <v>4710.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="H15" s="10">
-        <f>SUM(G14,-H14)</f>
-        <v>88.659999999999854</v>
+      <c r="G16" s="9">
+        <f>SUM(G2:G15)</f>
+        <v>5100.1099999999997</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H2:H15)</f>
+        <v>5100.6400000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="H17" s="10">
+        <f>SUM(H16,-G16)</f>
+        <v>0.53000000000065484</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -875,21 +875,31 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
+      <c r="A16" s="3">
+        <v>44225</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9692</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16" si="8">SUM(C16,-C15)</f>
+        <v>35</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" ref="F16" si="9">PRODUCT(D16,E16)</f>
+        <v>164.85</v>
       </c>
       <c r="G16" s="9">
-        <f>SUM(G2:G15)</f>
-        <v>5100.1099999999997</v>
+        <v>164.85</v>
       </c>
       <c r="H16" s="9">
-        <f>SUM(H2:H15)</f>
-        <v>5100.6400000000003</v>
+        <v>166.13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,11 +907,29 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="H17" s="10">
-        <f>SUM(H16,-G16)</f>
-        <v>0.53000000000065484</v>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9">
+        <f>SUM(G2:G16)</f>
+        <v>5264.96</v>
+      </c>
+      <c r="H17" s="9">
+        <f>SUM(H2:H16)</f>
+        <v>5266.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5"/>
+      <c r="H18" s="10">
+        <f>SUM(H17,-G17)</f>
+        <v>1.8100000000004002</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -903,33 +903,117 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5" t="s">
+      <c r="A17" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9722</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17" si="10">SUM(C17,-C16)</f>
+        <v>30</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" ref="F17" si="11">PRODUCT(D17,E17)</f>
+        <v>141.30000000000001</v>
+      </c>
+      <c r="G17" s="9">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="H17" s="9">
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9793</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18" si="12">SUM(C18,-C17)</f>
+        <v>71</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" ref="F18" si="13">PRODUCT(D18,E18)</f>
+        <v>334.41</v>
+      </c>
+      <c r="G18" s="9">
+        <v>334.41</v>
+      </c>
+      <c r="H18" s="9">
+        <v>318.79000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9818</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19" si="14">SUM(C19,-C18)</f>
+        <v>25</v>
+      </c>
+      <c r="E19" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" ref="F19" si="15">PRODUCT(D19,E19)</f>
+        <v>117.75</v>
+      </c>
+      <c r="G19" s="9">
+        <v>117.75</v>
+      </c>
+      <c r="H19" s="9">
+        <v>112.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="9">
-        <f>SUM(G2:G16)</f>
-        <v>5264.96</v>
-      </c>
-      <c r="H17" s="9">
-        <f>SUM(H2:H16)</f>
-        <v>5266.77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
-      <c r="H18" s="10">
-        <f>SUM(H17,-G17)</f>
-        <v>1.8100000000004002</v>
+      <c r="G20" s="9">
+        <f>SUM(G2:G19)</f>
+        <v>5858.42</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(H2:H19)</f>
+        <v>5832.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>-25.909999999999854</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -87,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,11 +107,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -127,19 +137,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -447,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -469,28 +476,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -505,10 +512,10 @@
         <v>8544</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -524,17 +531,17 @@
         <f t="shared" ref="D3:D8" si="0">SUM(C3,-C2)</f>
         <v>38</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>4.49</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <f t="shared" ref="F3:F10" si="1">PRODUCT(D3,E3)</f>
         <v>170.62</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>170.62</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>170.62</v>
       </c>
     </row>
@@ -552,17 +559,17 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>4.49</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
         <v>130.21</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>130.21</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>130.21</v>
       </c>
     </row>
@@ -580,17 +587,17 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>4.49</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>71.84</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>71.84</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>71.84</v>
       </c>
     </row>
@@ -608,17 +615,17 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>4.49</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>125.72</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>125.72</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>125.72</v>
       </c>
     </row>
@@ -636,17 +643,17 @@
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>4.49</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>763.30000000000007</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>763.3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>763.3</v>
       </c>
     </row>
@@ -664,17 +671,17 @@
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>4.49</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>965.35</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>965.35</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>965.35</v>
       </c>
     </row>
@@ -692,17 +699,17 @@
         <f t="shared" ref="D9:D15" si="2">SUM(C9,-C8)</f>
         <v>150</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>4.49</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>673.5</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>673.5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>673.5</v>
       </c>
     </row>
@@ -720,17 +727,17 @@
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>4.71</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>1059.75</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>1059.75</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>1010.25</v>
       </c>
     </row>
@@ -748,17 +755,17 @@
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>4.71</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <f t="shared" ref="F11" si="3">PRODUCT(D11,E11)</f>
         <v>522.80999999999995</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>522.80999999999995</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>498.39</v>
       </c>
     </row>
@@ -776,17 +783,17 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>4.71</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <f t="shared" ref="F12" si="4">PRODUCT(D12,E12)</f>
         <v>183.69</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>183.69</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>175.11</v>
       </c>
     </row>
@@ -804,17 +811,17 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>4.71</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <f t="shared" ref="F13" si="5">PRODUCT(D13,E13)</f>
         <v>131.88</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <v>131.88</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="7">
         <v>125.72</v>
       </c>
     </row>
@@ -832,17 +839,17 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>4.71</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <f t="shared" ref="F14" si="6">PRODUCT(D14,E14)</f>
         <v>197.82</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <v>197.82</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>197.56</v>
       </c>
     </row>
@@ -860,17 +867,17 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>4.71</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <f t="shared" ref="F15" si="7">PRODUCT(D15,E15)</f>
         <v>103.62</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>103.62</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>193.07</v>
       </c>
     </row>
@@ -888,17 +895,17 @@
         <f t="shared" ref="D16" si="8">SUM(C16,-C15)</f>
         <v>35</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>4.71</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <f t="shared" ref="F16" si="9">PRODUCT(D16,E16)</f>
         <v>164.85</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>164.85</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>166.13</v>
       </c>
     </row>
@@ -916,17 +923,17 @@
         <f t="shared" ref="D17" si="10">SUM(C17,-C16)</f>
         <v>30</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>4.71</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <f t="shared" ref="F17" si="11">PRODUCT(D17,E17)</f>
         <v>141.30000000000001</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>141.30000000000001</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <v>134.69999999999999</v>
       </c>
     </row>
@@ -944,17 +951,17 @@
         <f t="shared" ref="D18" si="12">SUM(C18,-C17)</f>
         <v>71</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>4.71</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <f t="shared" ref="F18" si="13">PRODUCT(D18,E18)</f>
         <v>334.41</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>334.41</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="7">
         <v>318.79000000000002</v>
       </c>
     </row>
@@ -972,36 +979,46 @@
         <f t="shared" ref="D19" si="14">SUM(C19,-C18)</f>
         <v>25</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>4.71</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <f t="shared" ref="F19" si="15">PRODUCT(D19,E19)</f>
         <v>117.75</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>117.75</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="7">
         <v>112.25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="9">
-        <f>SUM(G2:G19)</f>
-        <v>5858.42</v>
-      </c>
-      <c r="H20" s="9">
-        <f>SUM(H2:H19)</f>
-        <v>5832.51</v>
+      <c r="A20" s="3">
+        <v>44347</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9901</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20" si="16">SUM(C20,-C19)</f>
+        <v>83</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20" si="17">PRODUCT(D20,E20)</f>
+        <v>390.93</v>
+      </c>
+      <c r="G20" s="7">
+        <v>390.93</v>
+      </c>
+      <c r="H20" s="7">
+        <v>390.63</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1010,10 +1027,21 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
-        <v>-25.909999999999854</v>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7">
+        <f>SUM(G3:G20)</f>
+        <v>6249.35</v>
+      </c>
+      <c r="H21" s="7">
+        <f>SUM(H3:H20)</f>
+        <v>6223.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="9"/>
+      <c r="H22" s="7">
+        <f>SUM(G21,-H21)</f>
+        <v>26.210000000000036</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -454,10 +454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1022,26 +1022,54 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10026</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21" si="18">SUM(C21,-C20)</f>
+        <v>125</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21" si="19">PRODUCT(D21,E21)</f>
+        <v>588.75</v>
+      </c>
       <c r="G21" s="7">
-        <f>SUM(G3:G20)</f>
-        <v>6249.35</v>
+        <v>588.75</v>
       </c>
       <c r="H21" s="7">
-        <f>SUM(H3:H20)</f>
-        <v>6223.14</v>
+        <v>561.25</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="9"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7">
+        <f>SUM(G3:G21)</f>
+        <v>6838.1</v>
+      </c>
       <c r="H22" s="7">
-        <f>SUM(G21,-H21)</f>
-        <v>26.210000000000036</v>
+        <f>SUM(H3:H21)</f>
+        <v>6784.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="9"/>
+      <c r="H23" s="7">
+        <f>SUM(G22,-H22)</f>
+        <v>53.710000000000036</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -84,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,24 +107,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -143,10 +130,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,10 +438,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1050,26 +1034,47 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="8"/>
+      <c r="A22" s="3">
+        <v>44406</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10161</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22" si="20">SUM(C22,-C21)</f>
+        <v>135</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22" si="21">PRODUCT(D22,E22)</f>
+        <v>669.6</v>
+      </c>
       <c r="G22" s="7">
-        <f>SUM(G3:G21)</f>
-        <v>6838.1</v>
+        <v>669.6</v>
       </c>
       <c r="H22" s="7">
-        <f>SUM(H3:H21)</f>
-        <v>6784.39</v>
+        <v>669.6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="9"/>
+      <c r="G23" s="7">
+        <f>SUM(G2:G22)</f>
+        <v>7507.7000000000007</v>
+      </c>
       <c r="H23" s="7">
-        <f>SUM(G22,-H22)</f>
-        <v>53.710000000000036</v>
+        <f>SUM(H2:H22)</f>
+        <v>7453.9900000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="8">
+        <f>SUM(H23,-G23)</f>
+        <v>-53.710000000000036</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -438,10 +438,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1062,18 +1062,46 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44439</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10196</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23" si="22">SUM(C23,-C22)</f>
+        <v>35</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23" si="23">PRODUCT(D23,E23)</f>
+        <v>173.6</v>
+      </c>
       <c r="G23" s="7">
+        <v>173.6</v>
+      </c>
+      <c r="H23" s="7">
+        <v>173.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="7">
         <f>SUM(G2:G22)</f>
         <v>7507.7000000000007</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H24" s="7">
         <f>SUM(H2:H22)</f>
         <v>7453.9900000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="8">
-        <f>SUM(H23,-G23)</f>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="8">
+        <f>SUM(H24,-G24)</f>
         <v>-53.710000000000036</v>
       </c>
     </row>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -438,10 +438,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1090,18 +1090,46 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44466</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>10221</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ref="D24" si="24">SUM(C24,-C23)</f>
+        <v>25</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24" si="25">PRODUCT(D24,E24)</f>
+        <v>124</v>
+      </c>
       <c r="G24" s="7">
-        <f>SUM(G2:G22)</f>
-        <v>7507.7000000000007</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
-        <f>SUM(H2:H22)</f>
-        <v>7453.9900000000007</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="8">
-        <f>SUM(H24,-G24)</f>
+      <c r="G25" s="7">
+        <f>SUM(G2:G24)</f>
+        <v>7805.3000000000011</v>
+      </c>
+      <c r="H25" s="7">
+        <f>SUM(H2:H24)</f>
+        <v>7751.5900000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="8">
+        <f>SUM(H25,-G25)</f>
         <v>-53.710000000000036</v>
       </c>
     </row>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -438,10 +438,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1118,18 +1118,46 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44494</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>10246</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25" si="26">SUM(C25,-C24)</f>
+        <v>25</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25" si="27">PRODUCT(D25,E25)</f>
+        <v>124</v>
+      </c>
       <c r="G25" s="7">
+        <v>124</v>
+      </c>
+      <c r="H25" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="7">
         <f>SUM(G2:G24)</f>
         <v>7805.3000000000011</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H26" s="7">
         <f>SUM(H2:H24)</f>
         <v>7751.5900000000011</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="8">
-        <f>SUM(H25,-G25)</f>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="8">
+        <f>SUM(H26,-G26)</f>
         <v>-53.710000000000036</v>
       </c>
     </row>

--- a/sputnik/personal/ee/304ee.xlsx
+++ b/sputnik/personal/ee/304ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -438,10 +438,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1146,18 +1146,46 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44524</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10286</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ref="D26" si="28">SUM(C26,-C25)</f>
+        <v>40</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26" si="29">PRODUCT(D26,E26)</f>
+        <v>198.4</v>
+      </c>
       <c r="G26" s="7">
-        <f>SUM(G2:G24)</f>
-        <v>7805.3000000000011</v>
+        <v>198.4</v>
       </c>
       <c r="H26" s="7">
-        <f>SUM(H2:H24)</f>
-        <v>7751.5900000000011</v>
+        <v>198.4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="8">
-        <f>SUM(H26,-G26)</f>
+      <c r="G27" s="7">
+        <f>SUM(G2:G25)</f>
+        <v>7929.3000000000011</v>
+      </c>
+      <c r="H27" s="7">
+        <f>SUM(H2:H25)</f>
+        <v>7875.5900000000011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="8">
+        <f>SUM(H27,-G27)</f>
         <v>-53.710000000000036</v>
       </c>
     </row>
